--- a/db/queries/predicted/SBODemoUS-Inventory and Production-N2-N2-CodeS-queries-predicted.xlsx
+++ b/db/queries/predicted/SBODemoUS-Inventory and Production-N2-N2-CodeS-queries-predicted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
@@ -502,16 +497,11 @@
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>tab_naturalness_modifier</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>query_stats</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -577,14 +567,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'onhand'}, {'select element': '1'}, {'column': 'iscommited'}, {'select element': '1'}, {'column': 'onorder'}, {'table source item': '1'}, {'table': 'oitm'}, {'where': '1'}, {'predicate': '1'}, {'column': 'itemname'}]</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -649,14 +634,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'iscommited'}, {'select element': '1'}, {'column': 'price'}, {'select element': '1'}, {'column': 'iscommited'}, {'column': 'price'}, {'table source item': '1'}, {'table': 'oitm'}, {'join': '1'}, {'table source item': '1'}, {'table': 'itm1'}, {'predicate': '1'}, {'column': 'itemcode'}, {'column': 'itemcode'}, {'where': '1'}, {'predicate': '1'}, {'column': 'itemname'}]</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -722,14 +702,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'itemname'}, {'select element': '1'}, {'column': 'consig'}, {'select element': '1'}, {'column': 'lastpurprc'}, {'table source item': '1'}, {'table': 'itm2'}, {'join': '1'}, {'table source item': '1'}, {'table': 'oitm'}, {'predicate': '1'}, {'column': 'itemcode'}, {'column': 'itemcode'}, {'where': '1'}, {'predicate': '1'}, {'column': 'vendorcode'}]</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -794,14 +769,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'height1'}, {'select element': '1'}, {'column': 'width1'}, {'select element': '1'}, {'column': 'length1'}, {'select element': '1'}, {'column': 'volume'}, {'table source item': '1'}, {'table': 'itm4'}, {'join': '1'}, {'table source item': '1'}, {'table': 'oitm'}, {'predicate': '1'}, {'column': 'itemcode'}, {'column': 'itemcode'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'itemname'}, {'predicate': '1'}, {'column': 'qtyperpack'}]</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -865,14 +835,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'usefullife'}, {'select element': '1'}, {'column': 'remainlife'}, {'select element': '1'}, {'column': 'remaindays'}, {'table source item': '1'}, {'table': 'itm7'}, {'where': '1'}, {'predicate': '1'}, {'column': 'dprarea'}]</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -936,14 +901,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'volume'}, {'table source item': '1'}, {'table': 'opkg'}, {'where': '1'}, {'predicate': '1'}, {'column': 'pkgtype'}]</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -1008,14 +968,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'bcdcode'}, {'table source item': '1'}, {'table': 'oitm'}, {'join': '1'}, {'table source item': '1'}, {'table': 'obcd'}, {'predicate': '1'}, {'column': 'itemcode'}, {'column': 'itemcode'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'itemname'}, {'predicate': '1'}, {'column': 'uomentry'}]</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
@@ -1079,14 +1034,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'dispname'}, {'select element': '1'}, {'column': 'datasource'}, {'select element': '1'}, {'column': 'updatedate'}, {'table source item': '1'}, {'table': 'obfc'}, {'where': '1'}, {'predicate': '1'}, {'column': 'activated'}]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
@@ -1150,14 +1100,9 @@
           <t>N2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'itmsgrpnam'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'oitm'}, {'join': '1'}, {'table source item': '1'}, {'table': 'oitb'}, {'predicate': '1'}, {'column': 'itmsgrpcod'}, {'column': 'itmsgrpcod'}, {'group by': '1'}, {'column': 'itmsgrpnam'}]</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
@@ -1219,11 +1164,6 @@
       <c r="N11" t="inlineStr">
         <is>
           <t>N2</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'volume'}, {'table source item': '1'}, {'table': 'oitm'}, {'join': '1'}, {'table source item': '1'}, {'table': 'oitb'}, {'predicate': '1'}, {'column': 'itmsgrpcod'}, {'column': 'itmsgrpcod'}, {'join': '1'}, {'table source item': '1'}, {'table': 'itm4'}, {'predicate': '1'}, {'column': 'itemcode'}, {'column': 'itemcode'}, {'where': '1'}, {'predicate': '1'}, {'column': 'itmsgrpnam'}]</t>
         </is>
       </c>
     </row>
